--- a/3-SUM.xlsx
+++ b/3-SUM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://northeastern-my.sharepoint.com/personal/kakkadsasikumar_s_northeastern_edu/Documents/Assignments/PSA/Assignment 2 (3-SUM)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://northeastern-my.sharepoint.com/personal/kakkadsasikumar_s_northeastern_edu/Documents/Assignments/PSA/Assignment 2 (3-SUM)/code-assignment-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="149" documentId="8_{97A9C1B8-1116-4E3C-8D78-B2714231697A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41C8C5CE-6C72-421A-88CB-52193FCBF988}"/>
+  <xr:revisionPtr revIDLastSave="152" documentId="8_{97A9C1B8-1116-4E3C-8D78-B2714231697A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48A07040-D58D-40DC-8D1E-67D161548CD3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4B001CB3-E2E2-4D10-AC02-77062C58AC91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>N</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Quadratic with Calipers</t>
+  </si>
+  <si>
+    <t>log(t)</t>
   </si>
 </sst>
 </file>
@@ -2991,10 +2994,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3295,7 +3294,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3372,13 +3371,13 @@
         <v>7</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
